--- a/Task_10-1.xlsx
+++ b/Task_10-1.xlsx
@@ -3,12 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Итоги" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Итоги1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -416,7 +415,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -575,10 +574,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -645,25 +644,19 @@
         <v>300</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ИТОГО</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2910</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Task_10-1.xlsx
+++ b/Task_10-1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Итоги" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -413,153 +413,144 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.140625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Выработка</t>
-        </is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Сидоров</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Сидоров</t>
+          <t>Пупкин</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Пупкин</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Сидоров</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Сидоров</t>
+          <t>Пупкин</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Пупкин</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Васильев</t>
+          <t>Сидоров</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Сидоров</t>
+          <t>Пупкин</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Пупкин</t>
+          <t>Васильев</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Васильев</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
         <v>300</v>
       </c>
     </row>
@@ -577,7 +568,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -641,7 +632,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>3210</t>
         </is>
       </c>
     </row>
